--- a/data/All disease definitions.xlsx
+++ b/data/All disease definitions.xlsx
@@ -1392,8 +1392,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ABC51B6BC9B6A141B3175CC12944EBC4" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cc8225df11508bb4be0dc2e7c69aab69">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc4a5b4f-dccb-48f9-9b64-68a0d00916a2" xmlns:ns3="14908dc8-6cdd-428a-bf55-dcdb71cda173" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3c3b410782bcfc121a485f1b81918c3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ABC51B6BC9B6A141B3175CC12944EBC4" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="112bccb01dddcc0bbe5e9be90efc2838">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc4a5b4f-dccb-48f9-9b64-68a0d00916a2" xmlns:ns3="14908dc8-6cdd-428a-bf55-dcdb71cda173" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f9cfbeaf47a69b0e71ddc7978fd9ac92" ns2:_="" ns3:_="">
     <xsd:import namespace="bc4a5b4f-dccb-48f9-9b64-68a0d00916a2"/>
     <xsd:import namespace="14908dc8-6cdd-428a-bf55-dcdb71cda173"/>
     <xsd:element name="properties">
@@ -1416,6 +1416,7 @@
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1486,6 +1487,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="14908dc8-6cdd-428a-bf55-dcdb71cda173" elementFormDefault="qualified">
@@ -1649,22 +1655,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BB28DF9-0001-4590-8200-9C84A6F7A81B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bc4a5b4f-dccb-48f9-9b64-68a0d00916a2"/>
-    <ds:schemaRef ds:uri="14908dc8-6cdd-428a-bf55-dcdb71cda173"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{891FB7C4-1C86-4DBC-BD64-D095558CDE0B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
